--- a/Guia_Api_Facturas_Generix_ADT.xlsx
+++ b/Guia_Api_Facturas_Generix_ADT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://generixgrouponline-my.sharepoint.com/personal/layuso_generixgroup_com/Documents/Documentos/factura/ADT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{DED31407-6595-4F0D-AFCF-B2C379325484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{704DE48E-9FD0-4DC1-B2FE-10A5D38E08A8}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{DED31407-6595-4F0D-AFCF-B2C379325484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBF730B1-DC94-4431-8E27-D927B8FF7837}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Esquema General" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="622">
   <si>
     <t>JSON</t>
   </si>
@@ -1759,9 +1759,6 @@
     <t>2.2.5.1.16.3.</t>
   </si>
   <si>
-    <t>2.2.5.1.16.3.1.</t>
-  </si>
-  <si>
     <t>2.2.5.1.16.3.2.</t>
   </si>
   <si>
@@ -1913,13 +1910,31 @@
     <t>BICType string positions: 11</t>
   </si>
   <si>
-    <t>PaymentReconciliationReferenc e</t>
-  </si>
-  <si>
     <t>2.2.6.1.4.2.</t>
   </si>
   <si>
     <t>Referencia expresa del pago. Dato que precisa el Emisor para conciliar los pagos con cada factura.</t>
+  </si>
+  <si>
+    <t>PaymentReconciliationReference</t>
+  </si>
+  <si>
+    <t>2.2.5.1.16.3.7.</t>
+  </si>
+  <si>
+    <t>2.2.6.1.6.</t>
+  </si>
+  <si>
+    <t>CollectionAdditionalInformation</t>
+  </si>
+  <si>
+    <t>Observaciones de cobro. Libre para uso del Emisor.</t>
+  </si>
+  <si>
+    <t>2.2.8.2.3.</t>
+  </si>
+  <si>
+    <t>Tipo de Factura</t>
   </si>
 </sst>
 </file>
@@ -2466,7 +2481,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="86264" y="94890"/>
-          <a:ext cx="1309458" cy="289955"/>
+          <a:ext cx="1267943" cy="289955"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2801,7 +2816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
@@ -2913,7 +2928,7 @@
       </c>
       <c r="H6" s="29"/>
     </row>
-    <row r="7" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26"/>
       <c r="B7" s="15" t="s">
         <v>345</v>
@@ -5135,10 +5150,10 @@
         <v>412</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D29" s="43" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="26" t="s">
@@ -5176,7 +5191,7 @@
     <row r="31" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16"/>
       <c r="B31" s="20" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C31" s="20" t="s">
         <v>14</v>
@@ -5198,7 +5213,7 @@
     <row r="32" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
       <c r="B32" s="20" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C32" s="20" t="s">
         <v>15</v>
@@ -5220,7 +5235,7 @@
     <row r="33" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16"/>
       <c r="B33" s="20" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C33" s="20" t="s">
         <v>16</v>
@@ -5242,7 +5257,7 @@
     <row r="34" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16"/>
       <c r="B34" s="20" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C34" s="20" t="s">
         <v>17</v>
@@ -5264,7 +5279,7 @@
     <row r="35" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
       <c r="B35" s="20" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C35" s="20" t="s">
         <v>18</v>
@@ -5286,7 +5301,7 @@
     <row r="36" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16"/>
       <c r="B36" s="20" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C36" s="20" t="s">
         <v>19</v>
@@ -5308,7 +5323,7 @@
     <row r="37" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16"/>
       <c r="B37" s="20" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C37" s="20" t="s">
         <v>20</v>
@@ -5462,7 +5477,7 @@
     <row r="44" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16"/>
       <c r="B44" s="20" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C44" s="20" t="s">
         <v>27</v>
@@ -5484,7 +5499,7 @@
     <row r="45" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16"/>
       <c r="B45" s="20" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C45" s="20" t="s">
         <v>28</v>
@@ -5506,7 +5521,7 @@
     <row r="46" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16"/>
       <c r="B46" s="20" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C46" s="20" t="s">
         <v>29</v>
@@ -5528,7 +5543,7 @@
     <row r="47" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16"/>
       <c r="B47" s="20" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C47" s="20" t="s">
         <v>30</v>
@@ -5550,7 +5565,7 @@
     <row r="48" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16"/>
       <c r="B48" s="20" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C48" s="20" t="s">
         <v>31</v>
@@ -5572,7 +5587,7 @@
     <row r="49" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16"/>
       <c r="B49" s="20" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C49" s="20" t="s">
         <v>32</v>
@@ -6301,9 +6316,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25333C4E-FCEB-4BCB-A95F-5DF88E54B42A}">
-  <dimension ref="A1:I125"/>
+  <dimension ref="A1:I127"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
@@ -8429,14 +8444,14 @@
         <v>562</v>
       </c>
       <c r="C97" s="20" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D97" s="43" t="s">
         <v>236</v>
       </c>
       <c r="E97" s="17"/>
       <c r="F97" s="44" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G97" s="44" t="s">
         <v>141</v>
@@ -8451,7 +8466,7 @@
         <v>563</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D98" s="43" t="s">
         <v>192</v>
@@ -8464,7 +8479,7 @@
         <v>129</v>
       </c>
       <c r="H98" s="43" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="99" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8473,7 +8488,7 @@
         <v>564</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D99" s="43" t="s">
         <v>192</v>
@@ -8536,7 +8551,7 @@
     <row r="102" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A102" s="15"/>
       <c r="B102" s="15" t="s">
-        <v>567</v>
+        <v>590</v>
       </c>
       <c r="C102" s="20" t="s">
         <v>25</v>
@@ -8558,7 +8573,7 @@
     <row r="103" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A103" s="15"/>
       <c r="B103" s="15" t="s">
-        <v>591</v>
+        <v>616</v>
       </c>
       <c r="C103" s="20" t="s">
         <v>26</v>
@@ -8734,13 +8749,13 @@
     <row r="111" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A111" s="15"/>
       <c r="B111" s="15" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C111" s="15" t="s">
+        <v>610</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>611</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>612</v>
       </c>
       <c r="E111" s="26"/>
       <c r="F111" s="26" t="s">
@@ -8750,7 +8765,7 @@
         <v>141</v>
       </c>
       <c r="H111" s="16" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="112" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8759,10 +8774,10 @@
         <v>511</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="E112" s="26"/>
       <c r="F112" s="26" t="s">
@@ -8771,196 +8786,196 @@
       <c r="G112" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="H112" s="16" t="s">
+      <c r="H112" s="26" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="15"/>
+      <c r="B113" s="15" t="s">
+        <v>617</v>
+      </c>
+      <c r="C113" s="15" t="s">
+        <v>615</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="E113" s="26"/>
+      <c r="F113" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G113" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="H113" s="16" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="37"/>
-      <c r="B113" s="37" t="s">
+    <row r="114" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="37"/>
+      <c r="B114" s="37" t="s">
         <v>360</v>
       </c>
-      <c r="C113" s="37" t="s">
+      <c r="C114" s="37" t="s">
+        <v>593</v>
+      </c>
+      <c r="D114" s="40" t="s">
         <v>594</v>
       </c>
-      <c r="D113" s="40" t="s">
+      <c r="E114" s="39"/>
+      <c r="F114" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="G114" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="H114" s="38" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="15"/>
+      <c r="B115" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="C115" s="15" t="s">
         <v>595</v>
       </c>
-      <c r="E113" s="39"/>
-      <c r="F113" s="39" t="s">
+      <c r="D115" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="E115" s="26"/>
+      <c r="F115" s="26" t="s">
+        <v>586</v>
+      </c>
+      <c r="G115" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="H115" s="17" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="37"/>
+      <c r="B116" s="37" t="s">
+        <v>599</v>
+      </c>
+      <c r="C116" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="D116" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="E116" s="39"/>
+      <c r="F116" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="G113" s="39" t="s">
+      <c r="G116" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="H113" s="38" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="15"/>
-      <c r="B114" s="15" t="s">
-        <v>512</v>
-      </c>
-      <c r="C114" s="15" t="s">
-        <v>596</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="E114" s="26"/>
-      <c r="F114" s="26" t="s">
-        <v>587</v>
-      </c>
-      <c r="G114" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="H114" s="17" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="37"/>
-      <c r="B115" s="37" t="s">
-        <v>600</v>
-      </c>
-      <c r="C115" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="D115" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="E115" s="39"/>
-      <c r="F115" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="G115" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="H115" s="38" t="s">
+      <c r="H116" s="38" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="116" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="15"/>
-      <c r="B116" s="15" t="s">
-        <v>601</v>
-      </c>
-      <c r="C116" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="E116" s="26"/>
-      <c r="F116" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="G116" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="H116" s="16" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A117" s="15"/>
       <c r="B117" s="15" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E117" s="26"/>
       <c r="F117" s="26" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="G117" s="26" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="H117" s="16" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A118" s="15"/>
       <c r="B118" s="15" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E118" s="26"/>
       <c r="F118" s="26" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="G118" s="26" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="H118" s="16" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A119" s="15"/>
       <c r="B119" s="15" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="E119" s="24"/>
+        <v>334</v>
+      </c>
+      <c r="E119" s="26"/>
       <c r="F119" s="26" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="G119" s="26" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="H119" s="16" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A120" s="15"/>
       <c r="B120" s="15" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C120" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E120" s="26"/>
+        <v>336</v>
+      </c>
+      <c r="E120" s="24"/>
       <c r="F120" s="26" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="G120" s="26" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="H120" s="16" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="121" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A121" s="15"/>
       <c r="B121" s="15" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C121" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E121" s="26"/>
       <c r="F121" s="26" t="s">
@@ -8970,95 +8985,139 @@
         <v>141</v>
       </c>
       <c r="H121" s="16" t="s">
-        <v>239</v>
+        <v>339</v>
       </c>
     </row>
     <row r="122" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A122" s="15"/>
       <c r="B122" s="15" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C122" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E122" s="26"/>
       <c r="F122" s="26" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="G122" s="26" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="H122" s="16" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A123" s="15"/>
       <c r="B123" s="15" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C123" s="15" t="s">
-        <v>559</v>
+        <v>120</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>560</v>
+        <v>341</v>
       </c>
       <c r="E123" s="26"/>
       <c r="F123" s="26" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="G123" s="26" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="H123" s="16" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A124" s="15"/>
       <c r="B124" s="15" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C124" s="15" t="s">
-        <v>592</v>
+        <v>559</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="E124" s="26"/>
-      <c r="F124" s="44" t="s">
-        <v>587</v>
-      </c>
-      <c r="G124" s="44" t="s">
+      <c r="F124" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G124" s="26" t="s">
         <v>141</v>
       </c>
       <c r="H124" s="16" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
     </row>
     <row r="125" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A125" s="15"/>
       <c r="B125" s="15" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C125" s="15" t="s">
-        <v>593</v>
+        <v>146</v>
       </c>
       <c r="D125" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="E125" s="26"/>
+      <c r="F125" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G125" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="H125" s="16" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="15"/>
+      <c r="B126" s="15" t="s">
+        <v>609</v>
+      </c>
+      <c r="C126" s="15" t="s">
+        <v>591</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="E125" s="26"/>
-      <c r="F125" s="44" t="s">
-        <v>587</v>
-      </c>
-      <c r="G125" s="44" t="s">
+      <c r="E126" s="26"/>
+      <c r="F126" s="44" t="s">
+        <v>586</v>
+      </c>
+      <c r="G126" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="H125" s="16" t="s">
+      <c r="H126" s="16" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="15"/>
+      <c r="B127" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="C127" s="15" t="s">
+        <v>592</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>568</v>
+      </c>
+      <c r="E127" s="26"/>
+      <c r="F127" s="44" t="s">
+        <v>586</v>
+      </c>
+      <c r="G127" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="H127" s="16" t="s">
+        <v>567</v>
       </c>
     </row>
   </sheetData>
@@ -9067,7 +9126,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Guia_Api_Facturas_Generix_ADT.xlsx
+++ b/Guia_Api_Facturas_Generix_ADT.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://generixgrouponline-my.sharepoint.com/personal/layuso_generixgroup_com/Documents/Documentos/factura/ADT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\icastro\OneDrive - GENERIX\Documentos\GitHub\CyC_API_JSON_ADT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{DED31407-6595-4F0D-AFCF-B2C379325484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBF730B1-DC94-4431-8E27-D927B8FF7837}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3000405C-BE02-48E8-928A-60E687C54DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14115" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Esquema General" sheetId="1" r:id="rId1"/>
     <sheet name="Grupo1" sheetId="3" r:id="rId2"/>
     <sheet name="Grupo 2.1" sheetId="4" r:id="rId3"/>
     <sheet name="Grupo 2.2" sheetId="5" r:id="rId4"/>
+    <sheet name="ENUMS" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="804">
   <si>
     <t>JSON</t>
   </si>
@@ -1935,13 +1936,559 @@
   </si>
   <si>
     <t>Tipo de Factura</t>
+  </si>
+  <si>
+    <t>Código</t>
+  </si>
+  <si>
+    <t>Tipo de Persona</t>
+  </si>
+  <si>
+    <t>Persona Física</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Persona Jurídica</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Tipo de Residencia</t>
+  </si>
+  <si>
+    <t>Extranjero</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Residente (En España)</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Residente en la Unión Europea (Excepto España)</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>Clase</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
+  <si>
+    <t>OO</t>
+  </si>
+  <si>
+    <t>Original rectificativa</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>Original recapitulativa</t>
+  </si>
+  <si>
+    <t>OC</t>
+  </si>
+  <si>
+    <t>Coipa original</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Copia rectificativa</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>Copia recapitulativa</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>Unidades de medida</t>
+  </si>
+  <si>
+    <t>Unidades</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>Horas-HUR</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Kilogramos-KGM</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Litros-LTR</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>Cajas-BX</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Bandejas-DS</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>Barriles-BA</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>Bidones-JY</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>Bolsas-BG</t>
+  </si>
+  <si>
+    <t>Bombonas-CO</t>
+  </si>
+  <si>
+    <t>Botellas-BO</t>
+  </si>
+  <si>
+    <t>Botes-CI</t>
+  </si>
+  <si>
+    <t>Tetra Bricks</t>
+  </si>
+  <si>
+    <t>Centilitros-CLT</t>
+  </si>
+  <si>
+    <t>Centímetros-CMT</t>
+  </si>
+  <si>
+    <t>Cubos-BI</t>
+  </si>
+  <si>
+    <t>Docena-DZN</t>
+  </si>
+  <si>
+    <t>Estuches-CS</t>
+  </si>
+  <si>
+    <t>Garrafas-DJ</t>
+  </si>
+  <si>
+    <t>Gramos-GRM</t>
+  </si>
+  <si>
+    <t>Kilómetros-KMT</t>
+  </si>
+  <si>
+    <t>Latas-CA</t>
+  </si>
+  <si>
+    <t>Manojos-BH</t>
+  </si>
+  <si>
+    <t>Metros-MTR</t>
+  </si>
+  <si>
+    <t>Milímetros-MMT</t>
+  </si>
+  <si>
+    <t>6-Packs</t>
+  </si>
+  <si>
+    <t>Paquetes-PK</t>
+  </si>
+  <si>
+    <t>Raciones</t>
+  </si>
+  <si>
+    <t>Rollos-RO</t>
+  </si>
+  <si>
+    <t>Sobres-EN</t>
+  </si>
+  <si>
+    <t>Tarrinas-TB</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>Impuestos</t>
+  </si>
+  <si>
+    <t>IVA</t>
+  </si>
+  <si>
+    <t>IPSI</t>
+  </si>
+  <si>
+    <t>IGIC</t>
+  </si>
+  <si>
+    <t>IRPF</t>
+  </si>
+  <si>
+    <t>Otro</t>
+  </si>
+  <si>
+    <t>ITPAJD</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>Ra</t>
+  </si>
+  <si>
+    <t>IGTECM</t>
+  </si>
+  <si>
+    <t>IECDPCAC</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>IIIMAB</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>ICIO</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>IMVDN</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>IMSN</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>IMGSN</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>IMPN</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t>Formas de pago</t>
+  </si>
+  <si>
+    <t>Al contado</t>
+  </si>
+  <si>
+    <t>Recibo Domiciliado</t>
+  </si>
+  <si>
+    <t>Recibo</t>
+  </si>
+  <si>
+    <t>Transferencia</t>
+  </si>
+  <si>
+    <t>Letra Aceptada</t>
+  </si>
+  <si>
+    <t>Crédito Documentario</t>
+  </si>
+  <si>
+    <t>Contrato Adjudicación</t>
+  </si>
+  <si>
+    <t>Letra de cambio</t>
+  </si>
+  <si>
+    <t>Pagaré a la Orden</t>
+  </si>
+  <si>
+    <t>Pagaré No a la Orden</t>
+  </si>
+  <si>
+    <t>Cheque</t>
+  </si>
+  <si>
+    <t>Reposición</t>
+  </si>
+  <si>
+    <t>Especiales</t>
+  </si>
+  <si>
+    <t>Compensación</t>
+  </si>
+  <si>
+    <t>Giro postal</t>
+  </si>
+  <si>
+    <t>Cheque conformado</t>
+  </si>
+  <si>
+    <t>Cheque bancario</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Pago contra reembolso</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Pago mediante tarjeta</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>7.</t>
+  </si>
+  <si>
+    <t>Motivos de rectificación</t>
+  </si>
+  <si>
+    <t>Corrective (ReasonCode)</t>
+  </si>
+  <si>
+    <t>Número de la factura</t>
+  </si>
+  <si>
+    <t>Serie de la factura</t>
+  </si>
+  <si>
+    <t>Fecha expedición</t>
+  </si>
+  <si>
+    <t>Nombre y apellidos/Razón Social-Emisor</t>
+  </si>
+  <si>
+    <t>Nombre y apellidos/Razón Social-Receptor</t>
+  </si>
+  <si>
+    <t>Identificación fiscal Emisor/obligado</t>
+  </si>
+  <si>
+    <t>Identificación fiscal Receptor</t>
+  </si>
+  <si>
+    <t>Domicilio Emisor/Obligado</t>
+  </si>
+  <si>
+    <t>Domicilio Receptor</t>
+  </si>
+  <si>
+    <t>Detalle Operación</t>
+  </si>
+  <si>
+    <t>Porcentaje impositivo a aplicar</t>
+  </si>
+  <si>
+    <t>Cuota tributaria a aplicar</t>
+  </si>
+  <si>
+    <t>Fecha/Periodo a aplicar</t>
+  </si>
+  <si>
+    <t>Clase de factura</t>
+  </si>
+  <si>
+    <t>Literales legales</t>
+  </si>
+  <si>
+    <t>Base imponible</t>
+  </si>
+  <si>
+    <t>Cálculo de cuotas repercutidas</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>Cálculo de cuotas retenidas</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>Base imponible modificada por devolución de envases / embalajes</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>Base imponible modificada por descuentos y bonificaciones</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>Base imponible modificada por resolución firme, judicial o administrativa</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>Base imponible modificada cuotas repercutidas no satisfechas. Auto de declaración de concurso</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>8.</t>
+  </si>
+  <si>
+    <t>Criterios de rectificación</t>
+  </si>
+  <si>
+    <t>Rectificación íntegra</t>
+  </si>
+  <si>
+    <t>Rectificación por diferencias</t>
+  </si>
+  <si>
+    <t>Rectificación por descuento por volumen de operaciones durante un periodo</t>
+  </si>
+  <si>
+    <t>Autorizadas por la agencia tributaria</t>
+  </si>
+  <si>
+    <t>9.</t>
+  </si>
+  <si>
+    <t>Roles de centros administrativos</t>
+  </si>
+  <si>
+    <t>AdministrativeCentre (RoleTypeCode)</t>
+  </si>
+  <si>
+    <t>Con carácter general</t>
+  </si>
+  <si>
+    <t>Fiscal</t>
+  </si>
+  <si>
+    <t>Receptor</t>
+  </si>
+  <si>
+    <t>Pagador</t>
+  </si>
+  <si>
+    <t>Comprador</t>
+  </si>
+  <si>
+    <t>Cobrador</t>
+  </si>
+  <si>
+    <t>Vendedor</t>
+  </si>
+  <si>
+    <t>Receptor de pago</t>
+  </si>
+  <si>
+    <t>Receptor del cobro</t>
+  </si>
+  <si>
+    <t>Emisor</t>
+  </si>
+  <si>
+    <t>Si se trata de DIR3</t>
+  </si>
+  <si>
+    <t>Oficina Contable</t>
+  </si>
+  <si>
+    <t>Órgano Gestor</t>
+  </si>
+  <si>
+    <t>Unidad Tramitadora</t>
+  </si>
+  <si>
+    <t>Órgano Proponente</t>
+  </si>
+  <si>
+    <t>10.</t>
+  </si>
+  <si>
+    <t>Tipo de Documento</t>
+  </si>
+  <si>
+    <t>Factura Completa</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>Factura Simplificada</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>Código sin uso desde la entrada en vigor del RD 1789/2010</t>
+  </si>
+  <si>
+    <t>AF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2007,6 +2554,19 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
+      <name val="General Sans"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0"/>
       <name val="General Sans"/>
       <family val="3"/>
     </font>
@@ -2090,7 +2650,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2251,6 +2811,31 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2482,6 +3067,62 @@
         <a:xfrm>
           <a:off x="86264" y="94890"/>
           <a:ext cx="1267943" cy="289955"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>86264</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>94890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1068457</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>396275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38EE8EC8-DB76-4073-A65D-17CE7BA18738}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="88169" y="98700"/>
+          <a:ext cx="1304138" cy="297575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2820,21 +3461,21 @@
       <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="12" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="18" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" style="29" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" style="29" customWidth="1"/>
     <col min="4" max="4" width="88" style="31" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" style="18" customWidth="1"/>
     <col min="6" max="6" width="15" style="18" customWidth="1"/>
-    <col min="7" max="7" width="47.42578125" style="29" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" style="30" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="29"/>
+    <col min="7" max="7" width="47.44140625" style="29" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" style="30" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="38.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:9" s="22" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="38.85" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:9" s="22" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="57" t="s">
         <v>0</v>
       </c>
@@ -2846,7 +3487,7 @@
       <c r="G2" s="57"/>
       <c r="H2" s="47"/>
     </row>
-    <row r="3" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="10" t="s">
         <v>121</v>
@@ -2868,7 +3509,7 @@
       </c>
       <c r="I3" s="28"/>
     </row>
-    <row r="4" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26"/>
       <c r="B4" s="15"/>
       <c r="C4" s="16" t="s">
@@ -2885,7 +3526,7 @@
       </c>
       <c r="G4" s="16"/>
     </row>
-    <row r="5" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="53"/>
       <c r="B5" s="54" t="s">
         <v>343</v>
@@ -2906,7 +3547,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26"/>
       <c r="B6" s="15" t="s">
         <v>344</v>
@@ -2928,7 +3569,7 @@
       </c>
       <c r="H6" s="29"/>
     </row>
-    <row r="7" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26"/>
       <c r="B7" s="15" t="s">
         <v>345</v>
@@ -2949,7 +3590,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="48" x14ac:dyDescent="0.3">
       <c r="A8" s="26"/>
       <c r="B8" s="15" t="s">
         <v>346</v>
@@ -2970,7 +3611,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="26"/>
       <c r="B9" s="15" t="s">
         <v>347</v>
@@ -2991,7 +3632,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="26"/>
       <c r="B10" s="15" t="s">
         <v>348</v>
@@ -3012,7 +3653,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="53"/>
       <c r="B11" s="54" t="s">
         <v>349</v>
@@ -3033,7 +3674,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="26"/>
       <c r="B12" s="15" t="s">
         <v>350</v>
@@ -3054,7 +3695,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A13" s="26"/>
       <c r="B13" s="15" t="s">
         <v>351</v>
@@ -3075,7 +3716,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A14" s="26"/>
       <c r="B14" s="15" t="s">
         <v>352</v>
@@ -3096,7 +3737,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="26"/>
       <c r="B15" s="15" t="s">
         <v>353</v>
@@ -3117,7 +3758,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A16" s="26"/>
       <c r="B16" s="15" t="s">
         <v>354</v>
@@ -3139,7 +3780,7 @@
       </c>
       <c r="H16" s="29"/>
     </row>
-    <row r="17" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A17" s="26"/>
       <c r="B17" s="15" t="s">
         <v>355</v>
@@ -3161,7 +3802,7 @@
       </c>
       <c r="H17" s="29"/>
     </row>
-    <row r="18" spans="1:8" ht="11.65" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A18" s="26"/>
       <c r="B18" s="15" t="s">
         <v>356</v>
@@ -3181,7 +3822,7 @@
       <c r="G18" s="16"/>
       <c r="H18" s="29"/>
     </row>
-    <row r="19" spans="1:8" ht="11.65" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A19" s="26"/>
       <c r="B19" s="15" t="s">
         <v>357</v>
@@ -3203,7 +3844,7 @@
       </c>
       <c r="H19" s="29"/>
     </row>
-    <row r="20" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A20" s="26"/>
       <c r="B20" s="15" t="s">
         <v>358</v>
@@ -3225,7 +3866,7 @@
       </c>
       <c r="H20" s="29"/>
     </row>
-    <row r="21" spans="1:8" ht="11.65" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A21" s="26"/>
       <c r="B21" s="15" t="s">
         <v>359</v>
@@ -3247,7 +3888,7 @@
       </c>
       <c r="H21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="11.65" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A22" s="26"/>
       <c r="B22" s="15" t="s">
         <v>360</v>
@@ -3269,57 +3910,57 @@
       </c>
       <c r="H22" s="29"/>
     </row>
-    <row r="23" spans="1:8" ht="11.65" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="29"/>
       <c r="B23" s="29"/>
       <c r="D23" s="29"/>
       <c r="E23" s="29"/>
       <c r="F23" s="29"/>
     </row>
-    <row r="24" spans="1:8" ht="11.65" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="29"/>
       <c r="B24" s="29"/>
       <c r="D24" s="29"/>
       <c r="E24" s="29"/>
       <c r="F24" s="29"/>
     </row>
-    <row r="25" spans="1:8" ht="11.65" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="29"/>
       <c r="B25" s="29"/>
       <c r="D25" s="29"/>
       <c r="E25" s="29"/>
       <c r="F25" s="29"/>
     </row>
-    <row r="26" spans="1:8" ht="11.65" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="29"/>
       <c r="B26" s="29"/>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
       <c r="F26" s="29"/>
     </row>
-    <row r="27" spans="1:8" ht="11.65" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="29"/>
       <c r="B27" s="29"/>
       <c r="D27" s="29"/>
       <c r="E27" s="29"/>
       <c r="F27" s="29"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D28" s="32"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D29" s="32"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D30" s="32"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D31" s="32"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D32" s="32"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D33" s="32"/>
     </row>
   </sheetData>
@@ -3344,21 +3985,21 @@
       <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="12" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="23" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="23" customWidth="1"/>
     <col min="2" max="2" width="12" style="23" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="23" customWidth="1"/>
-    <col min="4" max="4" width="98.7109375" style="27" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="23" customWidth="1"/>
-    <col min="6" max="7" width="11.5703125" style="29"/>
+    <col min="3" max="3" width="27.88671875" style="23" customWidth="1"/>
+    <col min="4" max="4" width="98.6640625" style="27" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="23" customWidth="1"/>
+    <col min="6" max="7" width="11.5546875" style="29"/>
     <col min="8" max="8" width="61" style="28" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="11.42578125" style="23" customWidth="1"/>
-    <col min="13" max="16384" width="11.5703125" style="23"/>
+    <col min="9" max="9" width="24.44140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="11.44140625" style="23" customWidth="1"/>
+    <col min="13" max="16384" width="11.5546875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="29" customFormat="1" ht="38.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="29" customFormat="1" ht="38.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18"/>
       <c r="B1" s="28"/>
       <c r="D1" s="31"/>
@@ -3366,7 +4007,7 @@
       <c r="F1" s="18"/>
       <c r="H1" s="30"/>
     </row>
-    <row r="2" spans="1:14" s="22" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="57" t="s">
         <v>0</v>
       </c>
@@ -3379,7 +4020,7 @@
       <c r="H2" s="57"/>
       <c r="I2" s="48"/>
     </row>
-    <row r="3" spans="1:14" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>343</v>
@@ -3394,7 +4035,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="49"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="10" t="s">
         <v>121</v>
@@ -3418,7 +4059,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="15" t="s">
         <v>343</v>
@@ -3440,7 +4081,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>344</v>
@@ -3460,7 +4101,7 @@
       <c r="M6" s="17"/>
       <c r="N6" s="24"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="10" t="s">
         <v>121</v>
@@ -3489,7 +4130,7 @@
       <c r="M7" s="17"/>
       <c r="N7" s="24"/>
     </row>
-    <row r="8" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="2" t="s">
         <v>344</v>
@@ -3516,7 +4157,7 @@
       <c r="M8" s="17"/>
       <c r="N8" s="24"/>
     </row>
-    <row r="9" spans="1:14" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>345</v>
@@ -3536,7 +4177,7 @@
       <c r="M9" s="17"/>
       <c r="N9" s="24"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="10" t="s">
         <v>121</v>
@@ -3560,7 +4201,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="36" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
         <v>345</v>
@@ -3582,7 +4223,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
         <v>346</v>
@@ -3597,7 +4238,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="49"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="10" t="s">
         <v>121</v>
@@ -3621,7 +4262,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="36" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="2" t="s">
         <v>346</v>
@@ -3643,7 +4284,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
         <v>347</v>
@@ -3658,7 +4299,7 @@
       <c r="H15" s="19"/>
       <c r="I15" s="49"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="10" t="s">
         <v>121</v>
@@ -3682,7 +4323,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="2" t="s">
         <v>347</v>
@@ -3704,7 +4345,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
         <v>361</v>
@@ -3726,7 +4367,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="15" t="s">
         <v>362</v>
@@ -3748,7 +4389,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="20" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="15" t="s">
         <v>363</v>
@@ -3770,7 +4411,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="15" t="s">
         <v>364</v>
@@ -3792,7 +4433,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="22" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="15" t="s">
         <v>365</v>
@@ -3814,7 +4455,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="23" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="15" t="s">
         <v>366</v>
@@ -3836,7 +4477,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="15" t="s">
         <v>367</v>
@@ -3858,7 +4499,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="25" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="15" t="s">
         <v>368</v>
@@ -3880,7 +4521,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="26" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="15" t="s">
         <v>369</v>
@@ -3902,7 +4543,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="27" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="15" t="s">
         <v>370</v>
@@ -3924,7 +4565,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="15" t="s">
         <v>371</v>
@@ -3946,7 +4587,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="29" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="15" t="s">
         <v>372</v>
@@ -3968,7 +4609,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="30" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="15" t="s">
         <v>373</v>
@@ -3990,7 +4631,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="31" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="15" t="s">
         <v>374</v>
@@ -4012,7 +4653,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="15" t="s">
         <v>375</v>
@@ -4034,7 +4675,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="33" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="15" t="s">
         <v>376</v>
@@ -4056,7 +4697,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="34" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="15" t="s">
         <v>377</v>
@@ -4078,7 +4719,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="35" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="15" t="s">
         <v>378</v>
@@ -4100,7 +4741,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="36" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="15" t="s">
         <v>379</v>
@@ -4122,7 +4763,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="37" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14"/>
       <c r="B37" s="15" t="s">
         <v>380</v>
@@ -4144,7 +4785,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="38" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
       <c r="B38" s="15" t="s">
         <v>381</v>
@@ -4166,7 +4807,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="39" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
       <c r="B39" s="15" t="s">
         <v>382</v>
@@ -4188,7 +4829,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="40" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
       <c r="B40" s="15" t="s">
         <v>383</v>
@@ -4210,7 +4851,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="41" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
       <c r="B41" s="15" t="s">
         <v>384</v>
@@ -4232,7 +4873,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="42" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
       <c r="B42" s="15" t="s">
         <v>385</v>
@@ -4254,7 +4895,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="43" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
       <c r="B43" s="15" t="s">
         <v>386</v>
@@ -4276,7 +4917,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="5" t="s">
         <v>348</v>
@@ -4291,7 +4932,7 @@
       <c r="H44" s="19"/>
       <c r="I44" s="49"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
       <c r="B45" s="10" t="s">
         <v>121</v>
@@ -4315,7 +4956,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
       <c r="B46" s="2" t="s">
         <v>348</v>
@@ -4337,7 +4978,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
       <c r="B47" s="15" t="s">
         <v>387</v>
@@ -4359,7 +5000,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
       <c r="B48" s="15" t="s">
         <v>388</v>
@@ -4381,7 +5022,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
       <c r="B49" s="15" t="s">
         <v>389</v>
@@ -4403,7 +5044,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
       <c r="B50" s="15" t="s">
         <v>389</v>
@@ -4427,7 +5068,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14"/>
       <c r="B51" s="15" t="s">
         <v>390</v>
@@ -4449,7 +5090,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14"/>
       <c r="B52" s="15" t="s">
         <v>391</v>
@@ -4473,7 +5114,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="53" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14"/>
       <c r="B53" s="15" t="s">
         <v>392</v>
@@ -4495,7 +5136,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14"/>
       <c r="B54" s="15" t="s">
         <v>393</v>
@@ -4519,7 +5160,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="60" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="14"/>
       <c r="B55" s="15" t="s">
         <v>394</v>
@@ -4558,19 +5199,19 @@
       <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="12" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="23" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="23" customWidth="1"/>
     <col min="2" max="2" width="12" style="23" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="23" customWidth="1"/>
-    <col min="4" max="4" width="98.5703125" style="45" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="23" customWidth="1"/>
-    <col min="6" max="7" width="11.5703125" style="46"/>
+    <col min="3" max="3" width="27.88671875" style="23" customWidth="1"/>
+    <col min="4" max="4" width="98.5546875" style="45" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="23" customWidth="1"/>
+    <col min="6" max="7" width="11.5546875" style="46"/>
     <col min="8" max="8" width="59" style="23" customWidth="1"/>
-    <col min="9" max="16384" width="11.5703125" style="23"/>
+    <col min="9" max="16384" width="11.5546875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="29" customFormat="1" ht="38.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="29" customFormat="1" ht="38.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18"/>
       <c r="B1" s="28"/>
       <c r="D1" s="31"/>
@@ -4578,7 +5219,7 @@
       <c r="F1" s="18"/>
       <c r="H1" s="30"/>
     </row>
-    <row r="2" spans="1:9" s="22" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="57" t="s">
         <v>0</v>
       </c>
@@ -4590,7 +5231,7 @@
       <c r="G2" s="57"/>
       <c r="H2" s="57"/>
     </row>
-    <row r="3" spans="1:9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>349</v>
@@ -4605,7 +5246,7 @@
       <c r="H3" s="41"/>
       <c r="I3" s="34"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="10" t="s">
         <v>121</v>
@@ -4629,7 +5270,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:9" customFormat="1" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" customFormat="1" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
       <c r="B5" s="15" t="s">
         <v>349</v>
@@ -4650,7 +5291,7 @@
       </c>
       <c r="I5" s="34"/>
     </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>350</v>
@@ -4664,7 +5305,7 @@
       <c r="G6" s="7"/>
       <c r="H6" s="19"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="10" t="s">
         <v>121</v>
@@ -4688,7 +5329,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="15" t="s">
         <v>350</v>
@@ -4710,7 +5351,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>351</v>
@@ -4724,7 +5365,7 @@
       <c r="G9" s="7"/>
       <c r="H9" s="19"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="10" t="s">
         <v>121</v>
@@ -4748,7 +5389,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="20" t="s">
         <v>351</v>
@@ -4770,7 +5411,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="20" t="s">
         <v>395</v>
@@ -4792,7 +5433,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="20" t="s">
         <v>396</v>
@@ -4814,7 +5455,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="B14" s="20" t="s">
         <v>397</v>
@@ -4836,7 +5477,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="48" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="48" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="20" t="s">
         <v>398</v>
@@ -4858,7 +5499,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="20" t="s">
         <v>399</v>
@@ -4880,7 +5521,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="17" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="20" t="s">
         <v>400</v>
@@ -4902,7 +5543,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="18" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="20" t="s">
         <v>401</v>
@@ -4924,7 +5565,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="84" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="84" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
       <c r="B19" s="20" t="s">
         <v>402</v>
@@ -4946,7 +5587,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="20" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
       <c r="B20" s="20" t="s">
         <v>403</v>
@@ -4968,7 +5609,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="21" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="20" t="s">
         <v>404</v>
@@ -4990,7 +5631,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
       <c r="B22" s="20" t="s">
         <v>405</v>
@@ -5012,7 +5653,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
       <c r="B23" s="20" t="s">
         <v>406</v>
@@ -5034,7 +5675,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="24" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
       <c r="B24" s="20" t="s">
         <v>407</v>
@@ -5056,7 +5697,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
       <c r="B25" s="20" t="s">
         <v>408</v>
@@ -5078,7 +5719,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="26" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
       <c r="B26" s="20" t="s">
         <v>409</v>
@@ -5100,7 +5741,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="27" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
       <c r="B27" s="20" t="s">
         <v>410</v>
@@ -5122,7 +5763,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="28" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
       <c r="B28" s="20" t="s">
         <v>411</v>
@@ -5144,7 +5785,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="29" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="B29" s="20" t="s">
         <v>412</v>
@@ -5166,7 +5807,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="30" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
       <c r="B30" s="20" t="s">
         <v>522</v>
@@ -5188,7 +5829,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="31" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
       <c r="B31" s="20" t="s">
         <v>573</v>
@@ -5210,7 +5851,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
       <c r="B32" s="20" t="s">
         <v>574</v>
@@ -5232,7 +5873,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="33" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
       <c r="B33" s="20" t="s">
         <v>575</v>
@@ -5254,7 +5895,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="34" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16"/>
       <c r="B34" s="20" t="s">
         <v>576</v>
@@ -5276,7 +5917,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="35" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16"/>
       <c r="B35" s="20" t="s">
         <v>577</v>
@@ -5298,7 +5939,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="36" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16"/>
       <c r="B36" s="20" t="s">
         <v>578</v>
@@ -5320,7 +5961,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="37" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16"/>
       <c r="B37" s="20" t="s">
         <v>579</v>
@@ -5342,7 +5983,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="38" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16"/>
       <c r="B38" s="20" t="s">
         <v>523</v>
@@ -5364,7 +6005,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="39" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16"/>
       <c r="B39" s="20" t="s">
         <v>524</v>
@@ -5386,7 +6027,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="40" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16"/>
       <c r="B40" s="20" t="s">
         <v>525</v>
@@ -5408,7 +6049,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="41" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16"/>
       <c r="B41" s="20" t="s">
         <v>526</v>
@@ -5430,7 +6071,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="42" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16"/>
       <c r="B42" s="20" t="s">
         <v>527</v>
@@ -5452,7 +6093,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16"/>
       <c r="B43" s="20" t="s">
         <v>528</v>
@@ -5474,7 +6115,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="44" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16"/>
       <c r="B44" s="20" t="s">
         <v>580</v>
@@ -5496,7 +6137,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="45" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16"/>
       <c r="B45" s="20" t="s">
         <v>581</v>
@@ -5518,7 +6159,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="46" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16"/>
       <c r="B46" s="20" t="s">
         <v>582</v>
@@ -5540,7 +6181,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="47" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16"/>
       <c r="B47" s="20" t="s">
         <v>583</v>
@@ -5562,7 +6203,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="48" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16"/>
       <c r="B48" s="20" t="s">
         <v>584</v>
@@ -5584,7 +6225,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="49" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16"/>
       <c r="B49" s="20" t="s">
         <v>585</v>
@@ -5606,7 +6247,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="5" t="s">
         <v>352</v>
@@ -5620,7 +6261,7 @@
       <c r="G50" s="7"/>
       <c r="H50" s="19"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
       <c r="B51" s="10" t="s">
         <v>121</v>
@@ -5644,7 +6285,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="52" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="16"/>
       <c r="B52" s="21" t="s">
         <v>352</v>
@@ -5666,7 +6307,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="53" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16"/>
       <c r="B53" s="21" t="s">
         <v>413</v>
@@ -5688,7 +6329,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="54" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="16"/>
       <c r="B54" s="21" t="s">
         <v>414</v>
@@ -5710,7 +6351,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16"/>
       <c r="B55" s="21" t="s">
         <v>415</v>
@@ -5732,7 +6373,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16"/>
       <c r="B56" s="21" t="s">
         <v>416</v>
@@ -5754,7 +6395,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="16"/>
       <c r="B57" s="21" t="s">
         <v>417</v>
@@ -5776,7 +6417,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="58" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="16"/>
       <c r="B58" s="21" t="s">
         <v>418</v>
@@ -5798,7 +6439,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="59" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16"/>
       <c r="B59" s="21" t="s">
         <v>419</v>
@@ -5820,7 +6461,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="84" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="84" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16"/>
       <c r="B60" s="21" t="s">
         <v>420</v>
@@ -5842,7 +6483,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="61" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16"/>
       <c r="B61" s="21" t="s">
         <v>421</v>
@@ -5864,7 +6505,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="62" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16"/>
       <c r="B62" s="21" t="s">
         <v>422</v>
@@ -5886,7 +6527,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="63" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16"/>
       <c r="B63" s="21" t="s">
         <v>423</v>
@@ -5908,7 +6549,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="64" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16"/>
       <c r="B64" s="21" t="s">
         <v>424</v>
@@ -5930,7 +6571,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="65" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A65" s="16"/>
       <c r="B65" s="21" t="s">
         <v>425</v>
@@ -5952,7 +6593,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A66" s="16"/>
       <c r="B66" s="21" t="s">
         <v>426</v>
@@ -5974,7 +6615,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="67" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A67" s="16"/>
       <c r="B67" s="21" t="s">
         <v>427</v>
@@ -5996,7 +6637,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="68" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A68" s="16"/>
       <c r="B68" s="21" t="s">
         <v>428</v>
@@ -6018,7 +6659,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="69" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A69" s="16"/>
       <c r="B69" s="21" t="s">
         <v>429</v>
@@ -6040,7 +6681,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="70" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A70" s="16"/>
       <c r="B70" s="21" t="s">
         <v>430</v>
@@ -6062,7 +6703,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="71" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A71" s="16"/>
       <c r="B71" s="21" t="s">
         <v>431</v>
@@ -6084,7 +6725,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="72" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A72" s="16"/>
       <c r="B72" s="21" t="s">
         <v>432</v>
@@ -6106,7 +6747,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="73" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A73" s="16"/>
       <c r="B73" s="21" t="s">
         <v>433</v>
@@ -6128,7 +6769,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="74" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A74" s="16"/>
       <c r="B74" s="21" t="s">
         <v>434</v>
@@ -6150,7 +6791,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A75" s="16"/>
       <c r="B75" s="21" t="s">
         <v>435</v>
@@ -6172,7 +6813,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="76" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A76" s="16"/>
       <c r="B76" s="21" t="s">
         <v>436</v>
@@ -6194,7 +6835,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="77" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A77" s="16"/>
       <c r="B77" s="21" t="s">
         <v>437</v>
@@ -6216,7 +6857,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="78" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A78" s="16"/>
       <c r="B78" s="21" t="s">
         <v>438</v>
@@ -6238,7 +6879,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="79" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A79" s="16"/>
       <c r="B79" s="21" t="s">
         <v>439</v>
@@ -6260,7 +6901,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="80" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A80" s="16"/>
       <c r="B80" s="21" t="s">
         <v>440</v>
@@ -6282,7 +6923,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="81" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A81" s="16"/>
       <c r="B81" s="21" t="s">
         <v>441</v>
@@ -6318,24 +6959,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25333C4E-FCEB-4BCB-A95F-5DF88E54B42A}">
   <dimension ref="A1:I127"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" customWidth="1"/>
-    <col min="4" max="4" width="96.7109375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="51" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="1"/>
-    <col min="7" max="7" width="11.5703125" style="1"/>
-    <col min="8" max="8" width="58.140625" style="33" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="34"/>
+    <col min="3" max="3" width="27.88671875" customWidth="1"/>
+    <col min="4" max="4" width="96.6640625" style="35" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="51" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" style="1"/>
+    <col min="7" max="7" width="11.5546875" style="1"/>
+    <col min="8" max="8" width="58.109375" style="33" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="29" customFormat="1" ht="38.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="29" customFormat="1" ht="38.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18"/>
       <c r="B1" s="28"/>
       <c r="D1" s="31"/>
@@ -6343,7 +6984,7 @@
       <c r="F1" s="18"/>
       <c r="H1" s="30"/>
     </row>
-    <row r="2" spans="1:8" s="22" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="57" t="s">
         <v>0</v>
       </c>
@@ -6355,7 +6996,7 @@
       <c r="G2" s="57"/>
       <c r="H2" s="57"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>349</v>
@@ -6369,7 +7010,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="41"/>
     </row>
-    <row r="4" spans="1:8" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="10" t="s">
         <v>121</v>
@@ -6393,7 +7034,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
       <c r="B5" s="15" t="s">
         <v>349</v>
@@ -6413,7 +7054,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>353</v>
@@ -6427,7 +7068,7 @@
       <c r="G6" s="7"/>
       <c r="H6" s="41"/>
     </row>
-    <row r="7" spans="1:8" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="10" t="s">
         <v>121</v>
@@ -6451,7 +7092,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="15" t="s">
         <v>353</v>
@@ -6473,7 +7114,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="37"/>
       <c r="B9" s="37" t="s">
         <v>354</v>
@@ -6495,7 +7136,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
       <c r="B10" s="15" t="s">
         <v>442</v>
@@ -6517,7 +7158,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="60" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="15" t="s">
         <v>443</v>
@@ -6539,7 +7180,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
       <c r="B12" s="15" t="s">
         <v>444</v>
@@ -6561,7 +7202,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="13" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
       <c r="B13" s="15" t="s">
         <v>543</v>
@@ -6583,7 +7224,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="15" t="s">
         <v>545</v>
@@ -6605,7 +7246,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="15" t="s">
         <v>545</v>
@@ -6627,7 +7268,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15"/>
       <c r="B16" s="15" t="s">
         <v>545</v>
@@ -6649,7 +7290,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
       <c r="B17" s="15" t="s">
         <v>546</v>
@@ -6671,7 +7312,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="18" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
       <c r="B18" s="15" t="s">
         <v>547</v>
@@ -6693,7 +7334,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="19" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15"/>
       <c r="B19" s="15" t="s">
         <v>548</v>
@@ -6715,7 +7356,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15"/>
       <c r="B20" s="15" t="s">
         <v>549</v>
@@ -6737,7 +7378,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
       <c r="B21" s="15" t="s">
         <v>550</v>
@@ -6759,7 +7400,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
       <c r="B22" s="15" t="s">
         <v>551</v>
@@ -6781,7 +7422,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="37"/>
       <c r="B23" s="37" t="s">
         <v>355</v>
@@ -6803,7 +7444,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
       <c r="B24" s="15" t="s">
         <v>445</v>
@@ -6825,7 +7466,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="54" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="54" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
       <c r="B25" s="15" t="s">
         <v>446</v>
@@ -6847,7 +7488,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="26" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15"/>
       <c r="B26" s="15" t="s">
         <v>447</v>
@@ -6869,7 +7510,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
       <c r="B27" s="15" t="s">
         <v>448</v>
@@ -6891,7 +7532,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="60" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
       <c r="B28" s="15" t="s">
         <v>449</v>
@@ -6913,7 +7554,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A29" s="15"/>
       <c r="B29" s="15" t="s">
         <v>450</v>
@@ -6935,7 +7576,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15"/>
       <c r="B30" s="15" t="s">
         <v>451</v>
@@ -6957,7 +7598,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="37"/>
       <c r="B31" s="37" t="s">
         <v>356</v>
@@ -6977,7 +7618,7 @@
       </c>
       <c r="H31" s="38"/>
     </row>
-    <row r="32" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A32" s="15"/>
       <c r="B32" s="15" t="s">
         <v>452</v>
@@ -6999,7 +7640,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="108" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="108" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15"/>
       <c r="B33" s="15" t="s">
         <v>453</v>
@@ -7021,7 +7662,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A34" s="15"/>
       <c r="B34" s="15" t="s">
         <v>454</v>
@@ -7045,7 +7686,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="35" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A35" s="15"/>
       <c r="B35" s="15" t="s">
         <v>455</v>
@@ -7067,7 +7708,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A36" s="15"/>
       <c r="B36" s="15" t="s">
         <v>456</v>
@@ -7091,7 +7732,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="37" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15"/>
       <c r="B37" s="15" t="s">
         <v>457</v>
@@ -7113,7 +7754,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A38" s="15"/>
       <c r="B38" s="15" t="s">
         <v>458</v>
@@ -7137,7 +7778,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="37"/>
       <c r="B39" s="37" t="s">
         <v>357</v>
@@ -7159,7 +7800,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A40" s="15"/>
       <c r="B40" s="15" t="s">
         <v>459</v>
@@ -7183,7 +7824,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A41" s="15"/>
       <c r="B41" s="15" t="s">
         <v>460</v>
@@ -7205,7 +7846,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="42" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A42" s="15"/>
       <c r="B42" s="15" t="s">
         <v>461</v>
@@ -7227,7 +7868,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="43" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A43" s="15"/>
       <c r="B43" s="15" t="s">
         <v>462</v>
@@ -7249,7 +7890,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="44" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A44" s="15"/>
       <c r="B44" s="15" t="s">
         <v>463</v>
@@ -7271,7 +7912,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="45" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A45" s="15"/>
       <c r="B45" s="15" t="s">
         <v>464</v>
@@ -7293,7 +7934,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A46" s="15"/>
       <c r="B46" s="15" t="s">
         <v>465</v>
@@ -7315,7 +7956,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="47" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A47" s="15"/>
       <c r="B47" s="15" t="s">
         <v>466</v>
@@ -7337,7 +7978,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="48" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A48" s="15"/>
       <c r="B48" s="15" t="s">
         <v>467</v>
@@ -7359,7 +8000,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="49" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A49" s="15"/>
       <c r="B49" s="15" t="s">
         <v>468</v>
@@ -7381,7 +8022,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="50" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A50" s="15"/>
       <c r="B50" s="15" t="s">
         <v>469</v>
@@ -7403,7 +8044,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="51" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A51" s="15"/>
       <c r="B51" s="15" t="s">
         <v>470</v>
@@ -7425,7 +8066,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="52" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A52" s="15"/>
       <c r="B52" s="15" t="s">
         <v>471</v>
@@ -7447,7 +8088,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A53" s="15"/>
       <c r="B53" s="15" t="s">
         <v>472</v>
@@ -7471,7 +8112,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="54" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A54" s="15"/>
       <c r="B54" s="15" t="s">
         <v>473</v>
@@ -7495,7 +8136,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="55" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A55" s="15"/>
       <c r="B55" s="15" t="s">
         <v>474</v>
@@ -7519,7 +8160,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A56" s="15"/>
       <c r="B56" s="15" t="s">
         <v>475</v>
@@ -7543,7 +8184,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A57" s="15"/>
       <c r="B57" s="15" t="s">
         <v>476</v>
@@ -7567,7 +8208,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="35" customFormat="1" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" s="35" customFormat="1" ht="36" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A58" s="15"/>
       <c r="B58" s="15" t="s">
         <v>477</v>
@@ -7592,7 +8233,7 @@
       </c>
       <c r="I58" s="36"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="37"/>
       <c r="B59" s="37" t="s">
         <v>358</v>
@@ -7614,7 +8255,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="60" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A60" s="15"/>
       <c r="B60" s="15" t="s">
         <v>478</v>
@@ -7636,7 +8277,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="61" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A61" s="15"/>
       <c r="B61" s="15" t="s">
         <v>479</v>
@@ -7658,7 +8299,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="62" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A62" s="15"/>
       <c r="B62" s="15" t="s">
         <v>480</v>
@@ -7680,7 +8321,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="63" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A63" s="15"/>
       <c r="B63" s="15" t="s">
         <v>481</v>
@@ -7702,7 +8343,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="64" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A64" s="15"/>
       <c r="B64" s="15" t="s">
         <v>482</v>
@@ -7724,7 +8365,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="65" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A65" s="15"/>
       <c r="B65" s="15" t="s">
         <v>483</v>
@@ -7746,7 +8387,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="66" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A66" s="15"/>
       <c r="B66" s="15" t="s">
         <v>484</v>
@@ -7768,7 +8409,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A67" s="15"/>
       <c r="B67" s="15" t="s">
         <v>485</v>
@@ -7790,7 +8431,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="68" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A68" s="15"/>
       <c r="B68" s="15" t="s">
         <v>486</v>
@@ -7812,7 +8453,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="69" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A69" s="15"/>
       <c r="B69" s="15" t="s">
         <v>487</v>
@@ -7834,7 +8475,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A70" s="15"/>
       <c r="B70" s="15" t="s">
         <v>488</v>
@@ -7856,7 +8497,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A71" s="15"/>
       <c r="B71" s="15" t="s">
         <v>489</v>
@@ -7880,7 +8521,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="72" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A72" s="15"/>
       <c r="B72" s="15" t="s">
         <v>490</v>
@@ -7904,7 +8545,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="73" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A73" s="15"/>
       <c r="B73" s="15" t="s">
         <v>491</v>
@@ -7926,7 +8567,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="74" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A74" s="15"/>
       <c r="B74" s="15" t="s">
         <v>492</v>
@@ -7948,7 +8589,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="75" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A75" s="15"/>
       <c r="B75" s="15" t="s">
         <v>493</v>
@@ -7970,7 +8611,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="76" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A76" s="15"/>
       <c r="B76" s="15" t="s">
         <v>494</v>
@@ -7992,7 +8633,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="77" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A77" s="15"/>
       <c r="B77" s="15" t="s">
         <v>495</v>
@@ -8014,7 +8655,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="78" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A78" s="15"/>
       <c r="B78" s="15" t="s">
         <v>496</v>
@@ -8036,7 +8677,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="79" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A79" s="15"/>
       <c r="B79" s="15" t="s">
         <v>497</v>
@@ -8058,7 +8699,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="80" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A80" s="15"/>
       <c r="B80" s="15" t="s">
         <v>498</v>
@@ -8080,7 +8721,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="81" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A81" s="15"/>
       <c r="B81" s="15" t="s">
         <v>499</v>
@@ -8102,7 +8743,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="82" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A82" s="15"/>
       <c r="B82" s="15" t="s">
         <v>500</v>
@@ -8124,7 +8765,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="83" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A83" s="15"/>
       <c r="B83" s="15" t="s">
         <v>501</v>
@@ -8148,7 +8789,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A84" s="15"/>
       <c r="B84" s="15" t="s">
         <v>502</v>
@@ -8168,7 +8809,7 @@
       </c>
       <c r="H84" s="16"/>
     </row>
-    <row r="85" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A85" s="15"/>
       <c r="B85" s="15" t="s">
         <v>503</v>
@@ -8190,7 +8831,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="108" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="108" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A86" s="15"/>
       <c r="B86" s="15" t="s">
         <v>513</v>
@@ -8212,7 +8853,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A87" s="15"/>
       <c r="B87" s="15" t="s">
         <v>514</v>
@@ -8236,7 +8877,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="88" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A88" s="15"/>
       <c r="B88" s="15" t="s">
         <v>515</v>
@@ -8258,7 +8899,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A89" s="15"/>
       <c r="B89" s="15" t="s">
         <v>516</v>
@@ -8282,7 +8923,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="90" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A90" s="15"/>
       <c r="B90" s="15" t="s">
         <v>517</v>
@@ -8304,7 +8945,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A91" s="15"/>
       <c r="B91" s="15" t="s">
         <v>518</v>
@@ -8328,7 +8969,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="92" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A92" s="15"/>
       <c r="B92" s="15" t="s">
         <v>504</v>
@@ -8350,7 +8991,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="93" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A93" s="15"/>
       <c r="B93" s="15" t="s">
         <v>519</v>
@@ -8372,7 +9013,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="94" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A94" s="15"/>
       <c r="B94" s="15" t="s">
         <v>520</v>
@@ -8394,7 +9035,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="95" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A95" s="15"/>
       <c r="B95" s="15" t="s">
         <v>521</v>
@@ -8416,7 +9057,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A96" s="15"/>
       <c r="B96" s="15" t="s">
         <v>558</v>
@@ -8438,7 +9079,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="97" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A97" s="15"/>
       <c r="B97" s="15" t="s">
         <v>562</v>
@@ -8460,7 +9101,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="98" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A98" s="15"/>
       <c r="B98" s="15" t="s">
         <v>563</v>
@@ -8482,7 +9123,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="99" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A99" s="15"/>
       <c r="B99" s="15" t="s">
         <v>564</v>
@@ -8504,7 +9145,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="100" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A100" s="15"/>
       <c r="B100" s="15" t="s">
         <v>565</v>
@@ -8526,7 +9167,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="101" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A101" s="15"/>
       <c r="B101" s="15" t="s">
         <v>566</v>
@@ -8548,7 +9189,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="102" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A102" s="15"/>
       <c r="B102" s="15" t="s">
         <v>590</v>
@@ -8570,7 +9211,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A103" s="15"/>
       <c r="B103" s="15" t="s">
         <v>616</v>
@@ -8592,7 +9233,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="37"/>
       <c r="B104" s="37" t="s">
         <v>359</v>
@@ -8614,7 +9255,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="105" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A105" s="15"/>
       <c r="B105" s="15" t="s">
         <v>505</v>
@@ -8636,7 +9277,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="106" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A106" s="15"/>
       <c r="B106" s="15" t="s">
         <v>506</v>
@@ -8658,7 +9299,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="107" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A107" s="15"/>
       <c r="B107" s="15" t="s">
         <v>507</v>
@@ -8680,7 +9321,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A108" s="15"/>
       <c r="B108" s="15" t="s">
         <v>508</v>
@@ -8702,7 +9343,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A109" s="15"/>
       <c r="B109" s="15" t="s">
         <v>509</v>
@@ -8724,7 +9365,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="110" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A110" s="15"/>
       <c r="B110" s="15" t="s">
         <v>510</v>
@@ -8746,7 +9387,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A111" s="15"/>
       <c r="B111" s="15" t="s">
         <v>613</v>
@@ -8768,7 +9409,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="112" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A112" s="15"/>
       <c r="B112" s="15" t="s">
         <v>511</v>
@@ -8790,7 +9431,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="113" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A113" s="15"/>
       <c r="B113" s="15" t="s">
         <v>617</v>
@@ -8812,7 +9453,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="37"/>
       <c r="B114" s="37" t="s">
         <v>360</v>
@@ -8834,7 +9475,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A115" s="15"/>
       <c r="B115" s="15" t="s">
         <v>512</v>
@@ -8856,7 +9497,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="37"/>
       <c r="B116" s="37" t="s">
         <v>599</v>
@@ -8878,7 +9519,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="117" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A117" s="15"/>
       <c r="B117" s="15" t="s">
         <v>600</v>
@@ -8900,7 +9541,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A118" s="15"/>
       <c r="B118" s="15" t="s">
         <v>601</v>
@@ -8922,7 +9563,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A119" s="15"/>
       <c r="B119" s="15" t="s">
         <v>602</v>
@@ -8944,7 +9585,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A120" s="15"/>
       <c r="B120" s="15" t="s">
         <v>603</v>
@@ -8966,7 +9607,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="121" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A121" s="15"/>
       <c r="B121" s="15" t="s">
         <v>604</v>
@@ -8988,7 +9629,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="122" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A122" s="15"/>
       <c r="B122" s="15" t="s">
         <v>605</v>
@@ -9010,7 +9651,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="123" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A123" s="15"/>
       <c r="B123" s="15" t="s">
         <v>606</v>
@@ -9032,7 +9673,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A124" s="15"/>
       <c r="B124" s="15" t="s">
         <v>607</v>
@@ -9054,7 +9695,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="125" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A125" s="15"/>
       <c r="B125" s="15" t="s">
         <v>608</v>
@@ -9076,7 +9717,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="126" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A126" s="15"/>
       <c r="B126" s="15" t="s">
         <v>609</v>
@@ -9098,7 +9739,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="127" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A127" s="15"/>
       <c r="B127" s="15" t="s">
         <v>620</v>
@@ -9131,19 +9772,1272 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F120678-0F52-465C-A111-98E152B42EB4}">
+  <dimension ref="A1:D136"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.6640625" style="67" customWidth="1"/>
+    <col min="2" max="2" width="55.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36" style="68" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="29" customFormat="1" ht="38.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="58"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="59"/>
+    </row>
+    <row r="2" spans="1:4" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+    </row>
+    <row r="3" spans="1:4" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A3" s="60"/>
+      <c r="B3" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A4" s="62" t="s">
+        <v>343</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="34"/>
+    </row>
+    <row r="5" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="64"/>
+      <c r="B5" s="43" t="s">
+        <v>624</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>625</v>
+      </c>
+      <c r="D5" s="34"/>
+    </row>
+    <row r="6" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="66"/>
+      <c r="B6" s="43" t="s">
+        <v>626</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="62" t="s">
+        <v>349</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="66"/>
+      <c r="B8" s="43" t="s">
+        <v>629</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="66"/>
+      <c r="B9" s="43" t="s">
+        <v>631</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="66"/>
+      <c r="B10" s="43" t="s">
+        <v>633</v>
+      </c>
+      <c r="C10" s="65" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="62" t="s">
+        <v>635</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="C11" s="63" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="66"/>
+      <c r="B12" s="43" t="s">
+        <v>637</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="66"/>
+      <c r="B13" s="43" t="s">
+        <v>639</v>
+      </c>
+      <c r="C13" s="65" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="66"/>
+      <c r="B14" s="43" t="s">
+        <v>641</v>
+      </c>
+      <c r="C14" s="65" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="66"/>
+      <c r="B15" s="43" t="s">
+        <v>643</v>
+      </c>
+      <c r="C15" s="65" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="66"/>
+      <c r="B16" s="43" t="s">
+        <v>645</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="66"/>
+      <c r="B17" s="43" t="s">
+        <v>647</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="62" t="s">
+        <v>649</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="C18" s="63" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="66"/>
+      <c r="B19" s="43" t="s">
+        <v>651</v>
+      </c>
+      <c r="C19" s="65" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="66"/>
+      <c r="B20" s="43" t="s">
+        <v>653</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="66"/>
+      <c r="B21" s="43" t="s">
+        <v>655</v>
+      </c>
+      <c r="C21" s="65" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="66"/>
+      <c r="B22" s="43" t="s">
+        <v>657</v>
+      </c>
+      <c r="C22" s="65" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="66"/>
+      <c r="B23" s="43" t="s">
+        <v>659</v>
+      </c>
+      <c r="C23" s="65" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="66"/>
+      <c r="B24" s="43" t="s">
+        <v>661</v>
+      </c>
+      <c r="C24" s="65" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="66"/>
+      <c r="B25" s="43" t="s">
+        <v>663</v>
+      </c>
+      <c r="C25" s="65" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="66"/>
+      <c r="B26" s="43" t="s">
+        <v>665</v>
+      </c>
+      <c r="C26" s="65" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="66"/>
+      <c r="B27" s="43" t="s">
+        <v>667</v>
+      </c>
+      <c r="C27" s="65" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="66"/>
+      <c r="B28" s="43" t="s">
+        <v>669</v>
+      </c>
+      <c r="C28" s="65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="43"/>
+      <c r="B29" s="43" t="s">
+        <v>670</v>
+      </c>
+      <c r="C29" s="65">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="43"/>
+      <c r="B30" s="43" t="s">
+        <v>671</v>
+      </c>
+      <c r="C30" s="65">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="43"/>
+      <c r="B31" s="43" t="s">
+        <v>672</v>
+      </c>
+      <c r="C31" s="65">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="43"/>
+      <c r="B32" s="43" t="s">
+        <v>673</v>
+      </c>
+      <c r="C32" s="65">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="43"/>
+      <c r="B33" s="43" t="s">
+        <v>674</v>
+      </c>
+      <c r="C33" s="65">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="43"/>
+      <c r="B34" s="43" t="s">
+        <v>675</v>
+      </c>
+      <c r="C34" s="65">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="43"/>
+      <c r="B35" s="43" t="s">
+        <v>676</v>
+      </c>
+      <c r="C35" s="65">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="43"/>
+      <c r="B36" s="43" t="s">
+        <v>677</v>
+      </c>
+      <c r="C36" s="65">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="43"/>
+      <c r="B37" s="43" t="s">
+        <v>678</v>
+      </c>
+      <c r="C37" s="65">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="43"/>
+      <c r="B38" s="43" t="s">
+        <v>679</v>
+      </c>
+      <c r="C38" s="65">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="43"/>
+      <c r="B39" s="43" t="s">
+        <v>680</v>
+      </c>
+      <c r="C39" s="65">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="43"/>
+      <c r="B40" s="43" t="s">
+        <v>681</v>
+      </c>
+      <c r="C40" s="65">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="43"/>
+      <c r="B41" s="43" t="s">
+        <v>682</v>
+      </c>
+      <c r="C41" s="65">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="43"/>
+      <c r="B42" s="43" t="s">
+        <v>683</v>
+      </c>
+      <c r="C42" s="65">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="43"/>
+      <c r="B43" s="43" t="s">
+        <v>684</v>
+      </c>
+      <c r="C43" s="65">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="43"/>
+      <c r="B44" s="43" t="s">
+        <v>685</v>
+      </c>
+      <c r="C44" s="65">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="43"/>
+      <c r="B45" s="43" t="s">
+        <v>686</v>
+      </c>
+      <c r="C45" s="65">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="43"/>
+      <c r="B46" s="43" t="s">
+        <v>687</v>
+      </c>
+      <c r="C46" s="65">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="43"/>
+      <c r="B47" s="43" t="s">
+        <v>688</v>
+      </c>
+      <c r="C47" s="65">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="43"/>
+      <c r="B48" s="43" t="s">
+        <v>689</v>
+      </c>
+      <c r="C48" s="65">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="43"/>
+      <c r="B49" s="43" t="s">
+        <v>690</v>
+      </c>
+      <c r="C49" s="65">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="43"/>
+      <c r="B50" s="43" t="s">
+        <v>691</v>
+      </c>
+      <c r="C50" s="65">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="62" t="s">
+        <v>692</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="C51" s="63" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="43"/>
+      <c r="B52" s="43" t="s">
+        <v>694</v>
+      </c>
+      <c r="C52" s="65" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="43"/>
+      <c r="B53" s="43" t="s">
+        <v>695</v>
+      </c>
+      <c r="C53" s="65" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="43"/>
+      <c r="B54" s="43" t="s">
+        <v>696</v>
+      </c>
+      <c r="C54" s="65" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="43"/>
+      <c r="B55" s="43" t="s">
+        <v>697</v>
+      </c>
+      <c r="C55" s="65" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="43"/>
+      <c r="B56" s="43" t="s">
+        <v>698</v>
+      </c>
+      <c r="C56" s="65" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="43"/>
+      <c r="B57" s="43" t="s">
+        <v>699</v>
+      </c>
+      <c r="C57" s="65" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="43"/>
+      <c r="B58" s="43" t="s">
+        <v>700</v>
+      </c>
+      <c r="C58" s="65" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="43"/>
+      <c r="B59" s="43" t="s">
+        <v>701</v>
+      </c>
+      <c r="C59" s="65" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="43"/>
+      <c r="B60" s="43" t="s">
+        <v>702</v>
+      </c>
+      <c r="C60" s="65" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="43"/>
+      <c r="B61" s="43" t="s">
+        <v>703</v>
+      </c>
+      <c r="C61" s="65" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="43"/>
+      <c r="B62" s="43" t="s">
+        <v>705</v>
+      </c>
+      <c r="C62" s="65" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="43"/>
+      <c r="B63" s="43" t="s">
+        <v>707</v>
+      </c>
+      <c r="C63" s="65" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="43"/>
+      <c r="B64" s="43" t="s">
+        <v>709</v>
+      </c>
+      <c r="C64" s="65" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="43"/>
+      <c r="B65" s="43" t="s">
+        <v>711</v>
+      </c>
+      <c r="C65" s="65" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="43"/>
+      <c r="B66" s="43" t="s">
+        <v>713</v>
+      </c>
+      <c r="C66" s="65" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="43"/>
+      <c r="B67" s="43" t="s">
+        <v>715</v>
+      </c>
+      <c r="C67" s="65" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="62" t="s">
+        <v>717</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="C68" s="63" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="43"/>
+      <c r="B69" s="43" t="s">
+        <v>719</v>
+      </c>
+      <c r="C69" s="65" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="43"/>
+      <c r="B70" s="43" t="s">
+        <v>720</v>
+      </c>
+      <c r="C70" s="65" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="43"/>
+      <c r="B71" s="43" t="s">
+        <v>721</v>
+      </c>
+      <c r="C71" s="65" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="43"/>
+      <c r="B72" s="43" t="s">
+        <v>722</v>
+      </c>
+      <c r="C72" s="65" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="43"/>
+      <c r="B73" s="43" t="s">
+        <v>723</v>
+      </c>
+      <c r="C73" s="65" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="43"/>
+      <c r="B74" s="43" t="s">
+        <v>724</v>
+      </c>
+      <c r="C74" s="65" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="43"/>
+      <c r="B75" s="43" t="s">
+        <v>725</v>
+      </c>
+      <c r="C75" s="65" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="43"/>
+      <c r="B76" s="43" t="s">
+        <v>726</v>
+      </c>
+      <c r="C76" s="65" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="43"/>
+      <c r="B77" s="43" t="s">
+        <v>727</v>
+      </c>
+      <c r="C77" s="65" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="43"/>
+      <c r="B78" s="43" t="s">
+        <v>728</v>
+      </c>
+      <c r="C78" s="65" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="43"/>
+      <c r="B79" s="43" t="s">
+        <v>729</v>
+      </c>
+      <c r="C79" s="65" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="43"/>
+      <c r="B80" s="43" t="s">
+        <v>730</v>
+      </c>
+      <c r="C80" s="65" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="43"/>
+      <c r="B81" s="43" t="s">
+        <v>731</v>
+      </c>
+      <c r="C81" s="65" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="43"/>
+      <c r="B82" s="43" t="s">
+        <v>732</v>
+      </c>
+      <c r="C82" s="65" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="43"/>
+      <c r="B83" s="43" t="s">
+        <v>733</v>
+      </c>
+      <c r="C83" s="65" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="43"/>
+      <c r="B84" s="43" t="s">
+        <v>734</v>
+      </c>
+      <c r="C84" s="65" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="43"/>
+      <c r="B85" s="43" t="s">
+        <v>735</v>
+      </c>
+      <c r="C85" s="65" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="43"/>
+      <c r="B86" s="43" t="s">
+        <v>737</v>
+      </c>
+      <c r="C86" s="65" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="43"/>
+      <c r="B87" s="43" t="s">
+        <v>739</v>
+      </c>
+      <c r="C87" s="65" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="62" t="s">
+        <v>741</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C88" s="63" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="43"/>
+      <c r="B89" s="43" t="s">
+        <v>744</v>
+      </c>
+      <c r="C89" s="65" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="43"/>
+      <c r="B90" s="43" t="s">
+        <v>745</v>
+      </c>
+      <c r="C90" s="65" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="43"/>
+      <c r="B91" s="43" t="s">
+        <v>746</v>
+      </c>
+      <c r="C91" s="65" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="43"/>
+      <c r="B92" s="43" t="s">
+        <v>747</v>
+      </c>
+      <c r="C92" s="65" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="43"/>
+      <c r="B93" s="43" t="s">
+        <v>748</v>
+      </c>
+      <c r="C93" s="65" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="65"/>
+      <c r="B94" s="65" t="s">
+        <v>749</v>
+      </c>
+      <c r="C94" s="65" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="65"/>
+      <c r="B95" s="65" t="s">
+        <v>750</v>
+      </c>
+      <c r="C95" s="65" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="65"/>
+      <c r="B96" s="65" t="s">
+        <v>751</v>
+      </c>
+      <c r="C96" s="65" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="65"/>
+      <c r="B97" s="65" t="s">
+        <v>752</v>
+      </c>
+      <c r="C97" s="65" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="65"/>
+      <c r="B98" s="65" t="s">
+        <v>753</v>
+      </c>
+      <c r="C98" s="65" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="65"/>
+      <c r="B99" s="65" t="s">
+        <v>754</v>
+      </c>
+      <c r="C99" s="65" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="65"/>
+      <c r="B100" s="65" t="s">
+        <v>755</v>
+      </c>
+      <c r="C100" s="65" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="65"/>
+      <c r="B101" s="65" t="s">
+        <v>756</v>
+      </c>
+      <c r="C101" s="65" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="65"/>
+      <c r="B102" s="65" t="s">
+        <v>757</v>
+      </c>
+      <c r="C102" s="65" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="65"/>
+      <c r="B103" s="65" t="s">
+        <v>758</v>
+      </c>
+      <c r="C103" s="65" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="65"/>
+      <c r="B104" s="65" t="s">
+        <v>759</v>
+      </c>
+      <c r="C104" s="65" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="65"/>
+      <c r="B105" s="65" t="s">
+        <v>760</v>
+      </c>
+      <c r="C105" s="65" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="65"/>
+      <c r="B106" s="65" t="s">
+        <v>762</v>
+      </c>
+      <c r="C106" s="65" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="65"/>
+      <c r="B107" s="65" t="s">
+        <v>764</v>
+      </c>
+      <c r="C107" s="65" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="65"/>
+      <c r="B108" s="65" t="s">
+        <v>766</v>
+      </c>
+      <c r="C108" s="65" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="65"/>
+      <c r="B109" s="65" t="s">
+        <v>768</v>
+      </c>
+      <c r="C109" s="65" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="65"/>
+      <c r="B110" s="65" t="s">
+        <v>770</v>
+      </c>
+      <c r="C110" s="65" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="62" t="s">
+        <v>772</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="C111" s="63" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="65"/>
+      <c r="B112" s="65" t="s">
+        <v>774</v>
+      </c>
+      <c r="C112" s="65" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="65"/>
+      <c r="B113" s="65" t="s">
+        <v>775</v>
+      </c>
+      <c r="C113" s="65" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="65"/>
+      <c r="B114" s="65" t="s">
+        <v>776</v>
+      </c>
+      <c r="C114" s="65" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="65"/>
+      <c r="B115" s="65" t="s">
+        <v>777</v>
+      </c>
+      <c r="C115" s="65" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="15" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="62" t="s">
+        <v>778</v>
+      </c>
+      <c r="B116" s="62" t="s">
+        <v>779</v>
+      </c>
+      <c r="C116" s="62" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="37"/>
+      <c r="B117" s="37" t="s">
+        <v>781</v>
+      </c>
+      <c r="C117" s="37"/>
+    </row>
+    <row r="118" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="65"/>
+      <c r="B118" s="65" t="s">
+        <v>782</v>
+      </c>
+      <c r="C118" s="65" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="65"/>
+      <c r="B119" s="65" t="s">
+        <v>783</v>
+      </c>
+      <c r="C119" s="65" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="65"/>
+      <c r="B120" s="65" t="s">
+        <v>784</v>
+      </c>
+      <c r="C120" s="65" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="65"/>
+      <c r="B121" s="65" t="s">
+        <v>785</v>
+      </c>
+      <c r="C121" s="65" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="65"/>
+      <c r="B122" s="65" t="s">
+        <v>786</v>
+      </c>
+      <c r="C122" s="65" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="65"/>
+      <c r="B123" s="65" t="s">
+        <v>787</v>
+      </c>
+      <c r="C123" s="65" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="65"/>
+      <c r="B124" s="65" t="s">
+        <v>788</v>
+      </c>
+      <c r="C124" s="65" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="65"/>
+      <c r="B125" s="65" t="s">
+        <v>789</v>
+      </c>
+      <c r="C125" s="65" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="65"/>
+      <c r="B126" s="65" t="s">
+        <v>790</v>
+      </c>
+      <c r="C126" s="65" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="37"/>
+      <c r="B127" s="37" t="s">
+        <v>791</v>
+      </c>
+      <c r="C127" s="37"/>
+    </row>
+    <row r="128" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="65"/>
+      <c r="B128" s="65" t="s">
+        <v>792</v>
+      </c>
+      <c r="C128" s="65" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="65"/>
+      <c r="B129" s="65" t="s">
+        <v>793</v>
+      </c>
+      <c r="C129" s="65" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="65"/>
+      <c r="B130" s="65" t="s">
+        <v>794</v>
+      </c>
+      <c r="C130" s="65" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="65"/>
+      <c r="B131" s="65" t="s">
+        <v>795</v>
+      </c>
+      <c r="C131" s="65" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="15" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="62" t="s">
+        <v>796</v>
+      </c>
+      <c r="B132" s="62" t="s">
+        <v>797</v>
+      </c>
+      <c r="C132" s="62" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="65"/>
+      <c r="B133" s="65" t="s">
+        <v>798</v>
+      </c>
+      <c r="C133" s="65" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="65"/>
+      <c r="B134" s="65" t="s">
+        <v>800</v>
+      </c>
+      <c r="C134" s="65" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="65"/>
+      <c r="B135" s="65" t="s">
+        <v>802</v>
+      </c>
+      <c r="C135" s="65" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" collapsed="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9291,18 +11185,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7511AB4F-EDCE-4C8F-9114-F29EE1FED04D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACEA6D3-E19D-4B7E-B8E4-FC2FFCAA4342}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACEA6D3-E19D-4B7E-B8E4-FC2FFCAA4342}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7511AB4F-EDCE-4C8F-9114-F29EE1FED04D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
